--- a/biology/Médecine/Œdème/Œdème.xlsx
+++ b/biology/Médecine/Œdème/Œdème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me</t>
+          <t>Œdème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un œdème est un gonflement d'un organe ou d'un tissu dû à une accumulation ou un excès intratissulaire de liquides dans le milieu interstitiel chez les animaux ou dans les cellules chez les végétaux. L'œdème peut avoir de nombreuses causes primitives.
-Le mot œdème se prononce traditionnellement [edεm] (édème), mais la prononciation [ødεm] (eudème) est fréquente. Les prononciations [edεm] et [ødεm] sont décrites[1].
+Le mot œdème se prononce traditionnellement [edεm] (édème), mais la prononciation [ødεm] (eudème) est fréquente. Les prononciations [edεm] et [ødεm] sont décrites.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me</t>
+          <t>Œdème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Normalement, la quantité de liquide interstitiel est à l'équilibre ; on parle d'homéostasie. La physiopathologie des œdèmes découle d'un déséquilibre dans l'équation de Starling :
               Q
@@ -585,7 +599,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me</t>
+          <t>Œdème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,9 +617,11 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'œdème blanc, principalement retrouvé dans les cas d'insuffisance cardiaque, ou d'atteinte veineuse, est déclive (c'est-à-dire qu'il touche la partie la plus basse du corps, généralement les membres inférieurs), mou et prend le godet[2] (en appuyant sur l'œdème, il se forme une dépression qui persiste quelques instants).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'œdème blanc, principalement retrouvé dans les cas d'insuffisance cardiaque, ou d'atteinte veineuse, est déclive (c'est-à-dire qu'il touche la partie la plus basse du corps, généralement les membres inférieurs), mou et prend le godet (en appuyant sur l'œdème, il se forme une dépression qui persiste quelques instants).
 L'œdème rouge est dur, chaud et ne prend pas le godet. Il est fréquemment retrouvé lors de traumatismes.</t>
         </is>
       </c>
@@ -616,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me</t>
+          <t>Œdème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -634,7 +650,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les pathologies pouvant induire un œdème sont nombreuses :
 en cas d'hyperpression hydrostatique des veines, entraînant une diminution de la réabsorption de fluides : obstruction veineuse (thrombose veineuse profonde), insuffisance cardiaque congestive droite ou globale, varices ;
